--- a/תוכן טבלאות.xlsx
+++ b/תוכן טבלאות.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="60" windowWidth="20400" windowHeight="8010" tabRatio="724" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="20400" windowHeight="8010" tabRatio="747" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="SUPPLIER" sheetId="1" r:id="rId1"/>
@@ -100,63 +100,39 @@
     <t>Suzanne Collins</t>
   </si>
   <si>
-    <t>The Book Thief </t>
-  </si>
-  <si>
     <t>Markus Zusak</t>
   </si>
   <si>
     <t>Audrey Niffenegger</t>
   </si>
   <si>
-    <t>The Kite Runner </t>
-  </si>
-  <si>
-    <t>Khaled Hosseini </t>
-  </si>
-  <si>
     <t>The Help</t>
   </si>
   <si>
     <t>Kathryn Stockett</t>
   </si>
   <si>
-    <t>A Thousand Splendid Suns </t>
-  </si>
-  <si>
     <t>Stephenie Meyer</t>
   </si>
   <si>
-    <t>Water for Elephants </t>
-  </si>
-  <si>
     <t>Sara Gruen</t>
   </si>
   <si>
     <t>Stieg Larsson</t>
   </si>
   <si>
-    <t>Life of Pi </t>
-  </si>
-  <si>
     <t>Yann Marte</t>
   </si>
   <si>
     <t>Dan Brown</t>
   </si>
   <si>
-    <t>The Lovely Bones </t>
-  </si>
-  <si>
     <t>Alice Sebold</t>
   </si>
   <si>
     <t>Parragon</t>
   </si>
   <si>
-    <t>Everything Is Illuminated </t>
-  </si>
-  <si>
     <t>Jonathan Safran Foer</t>
   </si>
   <si>
@@ -388,9 +364,6 @@
     <t>Harry Potter and the Half-Blood Prince</t>
   </si>
   <si>
-    <t>The Time Travelers Wife </t>
-  </si>
-  <si>
     <t>2018-01-01 00:00:00</t>
   </si>
   <si>
@@ -467,6 +440,33 @@
   </si>
   <si>
     <t>2018-05-02 00:00:00</t>
+  </si>
+  <si>
+    <t>Life of Pi</t>
+  </si>
+  <si>
+    <t>The Book Thief</t>
+  </si>
+  <si>
+    <t>The Time Travelers Wife</t>
+  </si>
+  <si>
+    <t>The Kite Runner</t>
+  </si>
+  <si>
+    <t>A Thousand Splendid Suns</t>
+  </si>
+  <si>
+    <t>Water for Elephants</t>
+  </si>
+  <si>
+    <t>The Lovely Bones</t>
+  </si>
+  <si>
+    <t>Everything Is Illuminated</t>
+  </si>
+  <si>
+    <t>Khaled Hosseini</t>
   </si>
 </sst>
 </file>
@@ -538,18 +538,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="1" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -854,7 +857,7 @@
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A17"/>
+      <selection activeCell="B23" sqref="B23:B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -869,10 +872,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="3"/>
+      <c r="B1" s="8"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -1013,7 +1016,7 @@
         <v>114</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="C17" s="2"/>
     </row>
@@ -1056,7 +1059,7 @@
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3:G13"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1066,38 +1069,38 @@
     <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="53" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.28515625" style="6" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="18.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
+      <c r="A1" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C2" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>18</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -1110,16 +1113,16 @@
       <c r="C3">
         <v>3</v>
       </c>
-      <c r="D3" s="7" t="s">
-        <v>132</v>
+      <c r="D3" s="6" t="s">
+        <v>123</v>
       </c>
       <c r="E3">
         <v>4</v>
       </c>
-      <c r="F3" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="J3" s="7"/>
+      <c r="F3" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="J3" s="6"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
@@ -1131,16 +1134,16 @@
       <c r="C4">
         <v>2</v>
       </c>
-      <c r="D4" s="7" t="s">
-        <v>132</v>
+      <c r="D4" s="6" t="s">
+        <v>123</v>
       </c>
       <c r="E4">
         <v>4</v>
       </c>
-      <c r="F4" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="J4" s="7"/>
+      <c r="F4" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="J4" s="6"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
@@ -1152,16 +1155,16 @@
       <c r="C5">
         <v>1</v>
       </c>
-      <c r="D5" s="7" t="s">
-        <v>133</v>
+      <c r="D5" s="6" t="s">
+        <v>124</v>
       </c>
       <c r="E5">
         <v>4</v>
       </c>
-      <c r="F5" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="J5" s="7"/>
+      <c r="F5" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="J5" s="6"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
@@ -1173,16 +1176,16 @@
       <c r="C6">
         <v>6</v>
       </c>
-      <c r="D6" s="7" t="s">
-        <v>125</v>
+      <c r="D6" s="6" t="s">
+        <v>116</v>
       </c>
       <c r="E6">
         <v>3</v>
       </c>
-      <c r="F6" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="J6" s="7"/>
+      <c r="F6" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="J6" s="6"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
@@ -1194,16 +1197,16 @@
       <c r="C7">
         <v>7</v>
       </c>
-      <c r="D7" s="7" t="s">
-        <v>127</v>
+      <c r="D7" s="6" t="s">
+        <v>118</v>
       </c>
       <c r="E7">
         <v>3</v>
       </c>
-      <c r="F7" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="J7" s="7"/>
+      <c r="F7" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="J7" s="6"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
@@ -1215,16 +1218,16 @@
       <c r="C8">
         <v>14</v>
       </c>
-      <c r="D8" s="7" t="s">
-        <v>134</v>
+      <c r="D8" s="6" t="s">
+        <v>125</v>
       </c>
       <c r="E8">
         <v>4</v>
       </c>
-      <c r="F8" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="J8" s="7"/>
+      <c r="F8" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="J8" s="6"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
@@ -1236,16 +1239,16 @@
       <c r="C9">
         <v>10</v>
       </c>
-      <c r="D9" s="7" t="s">
-        <v>135</v>
+      <c r="D9" s="6" t="s">
+        <v>126</v>
       </c>
       <c r="E9">
         <v>2</v>
       </c>
-      <c r="F9" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="J9" s="7"/>
+      <c r="F9" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="J9" s="6"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
@@ -1257,16 +1260,16 @@
       <c r="C10">
         <v>8</v>
       </c>
-      <c r="D10" s="7" t="s">
-        <v>128</v>
+      <c r="D10" s="6" t="s">
+        <v>119</v>
       </c>
       <c r="E10">
         <v>3</v>
       </c>
-      <c r="F10" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="J10" s="7"/>
+      <c r="F10" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="J10" s="6"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
@@ -1278,16 +1281,16 @@
       <c r="C11">
         <v>12</v>
       </c>
-      <c r="D11" s="7" t="s">
-        <v>130</v>
+      <c r="D11" s="6" t="s">
+        <v>121</v>
       </c>
       <c r="E11">
         <v>1</v>
       </c>
-      <c r="F11" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="J11" s="7"/>
+      <c r="F11" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="J11" s="6"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
@@ -1299,16 +1302,16 @@
       <c r="C12">
         <v>4</v>
       </c>
-      <c r="D12" s="7" t="s">
-        <v>126</v>
+      <c r="D12" s="6" t="s">
+        <v>117</v>
       </c>
       <c r="E12">
         <v>1</v>
       </c>
-      <c r="F12" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="J12" s="7"/>
+      <c r="F12" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="J12" s="6"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13">
@@ -1320,16 +1323,16 @@
       <c r="C13">
         <v>8</v>
       </c>
-      <c r="D13" s="7" t="s">
-        <v>126</v>
+      <c r="D13" s="6" t="s">
+        <v>117</v>
       </c>
       <c r="E13">
         <v>1</v>
       </c>
-      <c r="F13" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="J13" s="7"/>
+      <c r="F13" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="J13" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1352,50 +1355,50 @@
     <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" style="6" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="40.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.28515625" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
+      <c r="A1" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C2" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>108</v>
+      <c r="D2" s="5" t="s">
+        <v>100</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -1408,8 +1411,8 @@
       <c r="C3">
         <v>3</v>
       </c>
-      <c r="D3" s="7" t="s">
-        <v>136</v>
+      <c r="D3" s="6" t="s">
+        <v>127</v>
       </c>
       <c r="E3">
         <v>200</v>
@@ -1434,8 +1437,8 @@
       <c r="C4">
         <v>2</v>
       </c>
-      <c r="D4" s="7" t="s">
-        <v>137</v>
+      <c r="D4" s="6" t="s">
+        <v>128</v>
       </c>
       <c r="E4">
         <v>201</v>
@@ -1460,8 +1463,8 @@
       <c r="C5">
         <v>1</v>
       </c>
-      <c r="D5" s="7" t="s">
-        <v>134</v>
+      <c r="D5" s="6" t="s">
+        <v>125</v>
       </c>
       <c r="E5">
         <v>202</v>
@@ -1486,8 +1489,8 @@
       <c r="C6">
         <v>14</v>
       </c>
-      <c r="D6" s="7" t="s">
-        <v>140</v>
+      <c r="D6" s="6" t="s">
+        <v>131</v>
       </c>
       <c r="E6">
         <v>203</v>
@@ -1512,8 +1515,8 @@
       <c r="C7">
         <v>5</v>
       </c>
-      <c r="D7" s="7" t="s">
-        <v>141</v>
+      <c r="D7" s="6" t="s">
+        <v>132</v>
       </c>
       <c r="E7">
         <v>204</v>
@@ -1538,8 +1541,8 @@
       <c r="C8">
         <v>7</v>
       </c>
-      <c r="D8" s="7" t="s">
-        <v>142</v>
+      <c r="D8" s="6" t="s">
+        <v>133</v>
       </c>
       <c r="E8">
         <v>205</v>
@@ -1564,8 +1567,8 @@
       <c r="C9">
         <v>11</v>
       </c>
-      <c r="D9" s="7" t="s">
-        <v>129</v>
+      <c r="D9" s="6" t="s">
+        <v>120</v>
       </c>
       <c r="E9">
         <v>206</v>
@@ -1590,8 +1593,8 @@
       <c r="C10">
         <v>9</v>
       </c>
-      <c r="D10" s="7" t="s">
-        <v>143</v>
+      <c r="D10" s="6" t="s">
+        <v>134</v>
       </c>
       <c r="E10">
         <v>200</v>
@@ -1616,8 +1619,8 @@
       <c r="C11">
         <v>13</v>
       </c>
-      <c r="D11" s="7" t="s">
-        <v>127</v>
+      <c r="D11" s="6" t="s">
+        <v>118</v>
       </c>
       <c r="E11">
         <v>201</v>
@@ -1642,8 +1645,8 @@
       <c r="C12">
         <v>12</v>
       </c>
-      <c r="D12" s="7" t="s">
-        <v>127</v>
+      <c r="D12" s="6" t="s">
+        <v>118</v>
       </c>
       <c r="E12">
         <v>202</v>
@@ -1668,8 +1671,8 @@
       <c r="C13">
         <v>6</v>
       </c>
-      <c r="D13" s="7" t="s">
-        <v>144</v>
+      <c r="D13" s="6" t="s">
+        <v>135</v>
       </c>
       <c r="E13">
         <v>203</v>
@@ -1694,8 +1697,8 @@
       <c r="C14">
         <v>1</v>
       </c>
-      <c r="D14" s="7" t="s">
-        <v>144</v>
+      <c r="D14" s="6" t="s">
+        <v>135</v>
       </c>
       <c r="E14">
         <v>203</v>
@@ -1720,8 +1723,8 @@
       <c r="C15">
         <v>10</v>
       </c>
-      <c r="D15" s="7" t="s">
-        <v>144</v>
+      <c r="D15" s="6" t="s">
+        <v>135</v>
       </c>
       <c r="E15">
         <v>203</v>
@@ -1746,8 +1749,8 @@
       <c r="C16">
         <v>7</v>
       </c>
-      <c r="D16" s="7" t="s">
-        <v>122</v>
+      <c r="D16" s="6" t="s">
+        <v>113</v>
       </c>
       <c r="E16">
         <v>209</v>
@@ -1772,8 +1775,8 @@
       <c r="C17">
         <v>12</v>
       </c>
-      <c r="D17" s="7" t="s">
-        <v>145</v>
+      <c r="D17" s="6" t="s">
+        <v>136</v>
       </c>
       <c r="E17">
         <v>207</v>
@@ -1798,8 +1801,8 @@
       <c r="C18">
         <v>9</v>
       </c>
-      <c r="D18" s="7" t="s">
-        <v>120</v>
+      <c r="D18" s="6" t="s">
+        <v>111</v>
       </c>
       <c r="E18">
         <v>208</v>
@@ -1825,10 +1828,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:E34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1836,17 +1839,17 @@
     <col min="1" max="1" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="52.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="67.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>18</v>
       </c>
@@ -1857,170 +1860,275 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="C3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E3" s="9"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="C4" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E4" s="9"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>3</v>
       </c>
       <c r="B5" t="s">
+        <v>138</v>
+      </c>
+      <c r="C5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E5" s="9"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>119</v>
+        <v>139</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="E6" s="9"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>140</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+      <c r="E7" s="9"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+      <c r="E8" s="9"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>30</v>
+        <v>141</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+      <c r="E9" s="9"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="C10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="E10" s="9"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>32</v>
+        <v>142</v>
       </c>
       <c r="C11" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+      <c r="E11" s="9"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="C12" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="E12" s="9"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>35</v>
+        <v>137</v>
       </c>
       <c r="C13" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+      <c r="E13" s="9"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+      <c r="E14" s="9"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>38</v>
+        <v>143</v>
       </c>
       <c r="C15" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+      <c r="E15" s="9"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="C16" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E16" s="9"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>41</v>
+        <v>144</v>
       </c>
       <c r="C17" t="s">
-        <v>42</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="E17" s="9"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="9"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="9"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="9"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="9"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="9"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="9"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="9"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="9"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="9"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="9"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="9"/>
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="9"/>
+      <c r="B31" s="9"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="9"/>
+      <c r="B32" s="9"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="9"/>
+      <c r="B33" s="9"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="9"/>
+      <c r="B34" s="9"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2035,7 +2143,7 @@
   <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:C13"/>
+      <selection activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2044,11 +2152,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
+      <c r="A1" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -2058,7 +2166,7 @@
         <v>18</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -2348,27 +2456,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:D20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" style="6" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="22.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
+      <c r="A1" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -2377,11 +2485,11 @@
       <c r="B2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>46</v>
+      <c r="C2" s="5" t="s">
+        <v>38</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -2391,13 +2499,13 @@
       <c r="B3">
         <v>1</v>
       </c>
-      <c r="C3" s="7" t="s">
-        <v>120</v>
+      <c r="C3" s="6" t="s">
+        <v>111</v>
       </c>
       <c r="D3">
         <v>65</v>
       </c>
-      <c r="H3" s="8"/>
+      <c r="H3" s="7"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
@@ -2406,8 +2514,8 @@
       <c r="B4">
         <v>1</v>
       </c>
-      <c r="C4" s="7" t="s">
-        <v>121</v>
+      <c r="C4" s="6" t="s">
+        <v>112</v>
       </c>
       <c r="D4">
         <v>10</v>
@@ -2420,8 +2528,8 @@
       <c r="B5">
         <v>2</v>
       </c>
-      <c r="C5" s="7" t="s">
-        <v>120</v>
+      <c r="C5" s="6" t="s">
+        <v>111</v>
       </c>
       <c r="D5">
         <v>45</v>
@@ -2434,8 +2542,8 @@
       <c r="B6">
         <v>2</v>
       </c>
-      <c r="C6" s="7" t="s">
-        <v>122</v>
+      <c r="C6" s="6" t="s">
+        <v>113</v>
       </c>
       <c r="D6">
         <v>15</v>
@@ -2448,8 +2556,8 @@
       <c r="B7">
         <v>3</v>
       </c>
-      <c r="C7" s="7" t="s">
-        <v>120</v>
+      <c r="C7" s="6" t="s">
+        <v>111</v>
       </c>
       <c r="D7">
         <v>35</v>
@@ -2462,8 +2570,8 @@
       <c r="B8">
         <v>3</v>
       </c>
-      <c r="C8" s="7" t="s">
-        <v>122</v>
+      <c r="C8" s="6" t="s">
+        <v>113</v>
       </c>
       <c r="D8">
         <v>20</v>
@@ -2476,8 +2584,8 @@
       <c r="B9">
         <v>5</v>
       </c>
-      <c r="C9" s="7" t="s">
-        <v>120</v>
+      <c r="C9" s="6" t="s">
+        <v>111</v>
       </c>
       <c r="D9">
         <v>30</v>
@@ -2490,8 +2598,8 @@
       <c r="B10">
         <v>5</v>
       </c>
-      <c r="C10" s="7" t="s">
-        <v>121</v>
+      <c r="C10" s="6" t="s">
+        <v>112</v>
       </c>
       <c r="D10">
         <v>75</v>
@@ -2504,8 +2612,8 @@
       <c r="B11">
         <v>6</v>
       </c>
-      <c r="C11" s="7" t="s">
-        <v>120</v>
+      <c r="C11" s="6" t="s">
+        <v>111</v>
       </c>
       <c r="D11">
         <v>60</v>
@@ -2518,8 +2626,8 @@
       <c r="B12">
         <v>6</v>
       </c>
-      <c r="C12" s="7" t="s">
-        <v>121</v>
+      <c r="C12" s="6" t="s">
+        <v>112</v>
       </c>
       <c r="D12">
         <v>55</v>
@@ -2532,8 +2640,8 @@
       <c r="B13">
         <v>6</v>
       </c>
-      <c r="C13" s="7" t="s">
-        <v>122</v>
+      <c r="C13" s="6" t="s">
+        <v>113</v>
       </c>
       <c r="D13">
         <v>45</v>
@@ -2546,8 +2654,8 @@
       <c r="B14">
         <v>7</v>
       </c>
-      <c r="C14" s="7" t="s">
-        <v>120</v>
+      <c r="C14" s="6" t="s">
+        <v>111</v>
       </c>
       <c r="D14">
         <v>30</v>
@@ -2560,8 +2668,8 @@
       <c r="B15">
         <v>7</v>
       </c>
-      <c r="C15" s="7" t="s">
-        <v>121</v>
+      <c r="C15" s="6" t="s">
+        <v>112</v>
       </c>
       <c r="D15">
         <v>30</v>
@@ -2574,8 +2682,8 @@
       <c r="B16">
         <v>7</v>
       </c>
-      <c r="C16" s="7" t="s">
-        <v>122</v>
+      <c r="C16" s="6" t="s">
+        <v>113</v>
       </c>
       <c r="D16">
         <v>30</v>
@@ -2588,8 +2696,8 @@
       <c r="B17">
         <v>9</v>
       </c>
-      <c r="C17" s="7" t="s">
-        <v>122</v>
+      <c r="C17" s="6" t="s">
+        <v>113</v>
       </c>
       <c r="D17">
         <v>80</v>
@@ -2602,8 +2710,8 @@
       <c r="B18">
         <v>10</v>
       </c>
-      <c r="C18" s="7" t="s">
-        <v>120</v>
+      <c r="C18" s="6" t="s">
+        <v>111</v>
       </c>
       <c r="D18">
         <v>65</v>
@@ -2616,8 +2724,8 @@
       <c r="B19">
         <v>10</v>
       </c>
-      <c r="C19" s="7" t="s">
-        <v>121</v>
+      <c r="C19" s="6" t="s">
+        <v>112</v>
       </c>
       <c r="D19">
         <v>40</v>
@@ -2630,8 +2738,8 @@
       <c r="B20">
         <v>11</v>
       </c>
-      <c r="C20" s="7" t="s">
-        <v>120</v>
+      <c r="C20" s="6" t="s">
+        <v>111</v>
       </c>
       <c r="D20">
         <v>55</v>
@@ -2644,8 +2752,8 @@
       <c r="B21">
         <v>12</v>
       </c>
-      <c r="C21" s="7" t="s">
-        <v>121</v>
+      <c r="C21" s="6" t="s">
+        <v>112</v>
       </c>
       <c r="D21">
         <v>110</v>
@@ -2658,8 +2766,8 @@
       <c r="B22">
         <v>13</v>
       </c>
-      <c r="C22" s="7" t="s">
-        <v>121</v>
+      <c r="C22" s="6" t="s">
+        <v>112</v>
       </c>
       <c r="D22">
         <v>100</v>
@@ -2672,8 +2780,8 @@
       <c r="B23">
         <v>14</v>
       </c>
-      <c r="C23" s="7" t="s">
-        <v>121</v>
+      <c r="C23" s="6" t="s">
+        <v>112</v>
       </c>
       <c r="D23">
         <v>105</v>
@@ -2686,8 +2794,8 @@
       <c r="B24">
         <v>15</v>
       </c>
-      <c r="C24" s="7" t="s">
-        <v>122</v>
+      <c r="C24" s="6" t="s">
+        <v>113</v>
       </c>
       <c r="D24">
         <v>35</v>
@@ -2700,8 +2808,8 @@
       <c r="B25">
         <v>15</v>
       </c>
-      <c r="C25" s="7" t="s">
-        <v>120</v>
+      <c r="C25" s="6" t="s">
+        <v>111</v>
       </c>
       <c r="D25">
         <v>40</v>
@@ -2714,8 +2822,8 @@
       <c r="B26">
         <v>15</v>
       </c>
-      <c r="C26" s="7" t="s">
-        <v>121</v>
+      <c r="C26" s="6" t="s">
+        <v>112</v>
       </c>
       <c r="D26">
         <v>45</v>
@@ -2728,8 +2836,8 @@
       <c r="B27">
         <v>15</v>
       </c>
-      <c r="C27" s="7" t="s">
-        <v>122</v>
+      <c r="C27" s="6" t="s">
+        <v>113</v>
       </c>
       <c r="D27">
         <v>105</v>
@@ -2748,38 +2856,38 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A4:D7"/>
+      <selection activeCell="A13" sqref="A12:D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
+      <c r="A1" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>44</v>
+        <v>39</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>36</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -2789,7 +2897,7 @@
       <c r="B3">
         <v>77</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="4">
         <v>122</v>
       </c>
       <c r="D3">
@@ -2803,7 +2911,7 @@
       <c r="B4">
         <v>99</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="4">
         <v>82</v>
       </c>
       <c r="D4">
@@ -2817,7 +2925,7 @@
       <c r="B5">
         <v>43</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="4">
         <v>90</v>
       </c>
       <c r="D5">
@@ -2831,7 +2939,7 @@
       <c r="B6">
         <v>34</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="4">
         <v>105</v>
       </c>
       <c r="D6">
@@ -2845,7 +2953,7 @@
       <c r="B7">
         <v>132</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="4">
         <v>95</v>
       </c>
       <c r="D7">
@@ -2859,7 +2967,7 @@
       <c r="B8">
         <v>67</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="4">
         <v>119</v>
       </c>
       <c r="D8">
@@ -2873,7 +2981,7 @@
       <c r="B9">
         <v>78</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="4">
         <v>110</v>
       </c>
       <c r="D9">
@@ -2887,7 +2995,7 @@
       <c r="B10">
         <v>22</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="4">
         <v>112</v>
       </c>
       <c r="D10">
@@ -2901,7 +3009,7 @@
       <c r="B11">
         <v>54</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11" s="4">
         <v>99</v>
       </c>
       <c r="D11">
@@ -2915,7 +3023,7 @@
       <c r="B12">
         <v>0</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12" s="4">
         <v>84</v>
       </c>
       <c r="D12">
@@ -2929,7 +3037,7 @@
       <c r="B13">
         <v>0</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C13" s="4">
         <v>114</v>
       </c>
       <c r="D13">
@@ -2943,7 +3051,7 @@
       <c r="B14">
         <v>33</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C14" s="4">
         <v>118</v>
       </c>
       <c r="D14">
@@ -2963,7 +3071,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:F9"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2978,33 +3086,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
+      <c r="A1" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -3012,13 +3120,13 @@
         <v>300</v>
       </c>
       <c r="B3" t="s">
-        <v>78</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>120</v>
+        <v>70</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>111</v>
       </c>
       <c r="D3" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -3032,13 +3140,13 @@
         <v>301</v>
       </c>
       <c r="B4" t="s">
-        <v>84</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>123</v>
+        <v>76</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>114</v>
       </c>
       <c r="D4" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -3052,13 +3160,13 @@
         <v>302</v>
       </c>
       <c r="B5" t="s">
-        <v>79</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>124</v>
+        <v>71</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>115</v>
       </c>
       <c r="D5" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -3072,13 +3180,13 @@
         <v>303</v>
       </c>
       <c r="B6" t="s">
-        <v>80</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>121</v>
+        <v>72</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>112</v>
       </c>
       <c r="D6" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -3092,13 +3200,13 @@
         <v>304</v>
       </c>
       <c r="B7" t="s">
-        <v>81</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>125</v>
+        <v>73</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>116</v>
       </c>
       <c r="D7" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -3112,13 +3220,13 @@
         <v>305</v>
       </c>
       <c r="B8" t="s">
-        <v>82</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>126</v>
+        <v>74</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>117</v>
       </c>
       <c r="D8" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -3132,13 +3240,13 @@
         <v>306</v>
       </c>
       <c r="B9" t="s">
-        <v>83</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>125</v>
+        <v>75</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>116</v>
       </c>
       <c r="D9" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -3152,13 +3260,13 @@
         <v>307</v>
       </c>
       <c r="B10" t="s">
-        <v>85</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>127</v>
+        <v>77</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>118</v>
       </c>
       <c r="D10" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -3172,13 +3280,13 @@
         <v>308</v>
       </c>
       <c r="B11" t="s">
-        <v>86</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>128</v>
+        <v>78</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>119</v>
       </c>
       <c r="D11" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -3192,13 +3300,13 @@
         <v>309</v>
       </c>
       <c r="B12" t="s">
-        <v>87</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>129</v>
+        <v>79</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>120</v>
       </c>
       <c r="D12" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -3212,13 +3320,13 @@
         <v>310</v>
       </c>
       <c r="B13" t="s">
-        <v>88</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>130</v>
+        <v>80</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>121</v>
       </c>
       <c r="D13" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -3250,17 +3358,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B1" s="3"/>
+      <c r="A1" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="8"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -3268,7 +3376,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -3276,7 +3384,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -3284,7 +3392,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -3292,7 +3400,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -3318,17 +3426,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B1" s="3"/>
+      <c r="A1" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" s="8"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -3336,7 +3444,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -3344,7 +3452,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -3360,7 +3468,7 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:C12"/>
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3371,10 +3479,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B1" s="3"/>
+      <c r="A1" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="8"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -3389,7 +3497,7 @@
         <v>200</v>
       </c>
       <c r="B3" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -3397,7 +3505,7 @@
         <v>201</v>
       </c>
       <c r="B4" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -3405,7 +3513,7 @@
         <v>202</v>
       </c>
       <c r="B5" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -3413,7 +3521,7 @@
         <v>203</v>
       </c>
       <c r="B6" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -3421,7 +3529,7 @@
         <v>204</v>
       </c>
       <c r="B7" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -3429,7 +3537,7 @@
         <v>205</v>
       </c>
       <c r="B8" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -3437,7 +3545,7 @@
         <v>206</v>
       </c>
       <c r="B9" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -3445,7 +3553,7 @@
         <v>207</v>
       </c>
       <c r="B10" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -3453,7 +3561,7 @@
         <v>208</v>
       </c>
       <c r="B11" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -3461,7 +3569,7 @@
         <v>209</v>
       </c>
       <c r="B12" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
